--- a/Docs/ISS_Public_Telemetry.xlsx
+++ b/Docs/ISS_Public_Telemetry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kazimiera-my.sharepoint.com/personal/liam_kazimiera_onmicrosoft_com/Documents/issabove/Code/ISS Live lightstreamer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kazimiera-my.sharepoint.com/personal/liam_kazimiera_onmicrosoft_com/Documents/issabove/Code/lightstreamer-python-iss/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{366C02A2-01E7-4BC6-8FD0-3B2C0199D549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{500CDC67-B9C2-48E7-94E2-B9A6687A4A4F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{366C02A2-01E7-4BC6-8FD0-3B2C0199D549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B1446B4C-86D1-42AB-B2AB-FA808AA83BCF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="45" windowWidth="27195" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public Telemetry Values" sheetId="2" r:id="rId1"/>
@@ -4464,6 +4464,7 @@
   <autoFilter ref="A1:G338" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="1">
       <filters>
+        <filter val="ADCO"/>
         <filter val="ADCO/TOPO"/>
         <filter val="TOPO"/>
       </filters>
@@ -4762,7 +4763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A195" sqref="A195"/>
       <selection pane="topRight" activeCell="C259" sqref="C259"/>
@@ -8967,7 +8968,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>239</v>
       </c>
@@ -8990,7 +8991,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>240</v>
       </c>
@@ -9013,7 +9014,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>241</v>
       </c>
@@ -9036,7 +9037,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>242</v>
       </c>
@@ -9059,7 +9060,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>243</v>
       </c>
@@ -9082,7 +9083,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>244</v>
       </c>
@@ -9105,7 +9106,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>245</v>
       </c>
@@ -9128,7 +9129,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>246</v>
       </c>
@@ -9151,7 +9152,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>247</v>
       </c>
@@ -9197,7 +9198,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>248</v>
       </c>
@@ -9243,7 +9244,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>249</v>
       </c>
@@ -9266,7 +9267,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>250</v>
       </c>
@@ -9289,7 +9290,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>251</v>
       </c>
@@ -9312,7 +9313,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>252</v>
       </c>
@@ -9335,7 +9336,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>253</v>
       </c>
@@ -9358,7 +9359,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>254</v>
       </c>
@@ -9381,7 +9382,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>255</v>
       </c>
@@ -9404,7 +9405,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>256</v>
       </c>
@@ -9427,7 +9428,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>257</v>
       </c>
@@ -9450,7 +9451,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>258</v>
       </c>
@@ -9473,7 +9474,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>259</v>
       </c>
@@ -9496,7 +9497,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>260</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>261</v>
       </c>
@@ -9542,7 +9543,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>262</v>
       </c>
@@ -9565,7 +9566,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>263</v>
       </c>
@@ -9588,7 +9589,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>264</v>
       </c>
@@ -9611,7 +9612,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>265</v>
       </c>
@@ -9634,7 +9635,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>266</v>
       </c>
@@ -9657,7 +9658,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>267</v>
       </c>
@@ -9818,7 +9819,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>268</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>269</v>
       </c>
@@ -9864,7 +9865,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>270</v>
       </c>
@@ -9887,7 +9888,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>271</v>
       </c>
@@ -9910,7 +9911,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>272</v>
       </c>
@@ -9933,7 +9934,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>273</v>
       </c>
@@ -9956,7 +9957,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>274</v>
       </c>
@@ -9979,7 +9980,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>275</v>
       </c>
@@ -10002,7 +10003,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>276</v>
       </c>
@@ -10025,7 +10026,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>277</v>
       </c>
@@ -10048,7 +10049,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>278</v>
       </c>
@@ -10071,7 +10072,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>279</v>
       </c>
@@ -10094,7 +10095,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>280</v>
       </c>
@@ -10117,7 +10118,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>281</v>
       </c>
@@ -10140,7 +10141,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>282</v>
       </c>
@@ -11313,7 +11314,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
         <v>283</v>
       </c>
@@ -11336,7 +11337,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
         <v>284</v>
       </c>
@@ -11359,7 +11360,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
         <v>285</v>
       </c>
@@ -11382,7 +11383,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
         <v>286</v>
       </c>
@@ -11405,7 +11406,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
         <v>287</v>
       </c>
@@ -11428,7 +11429,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
         <v>288</v>
       </c>
@@ -11451,7 +11452,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
         <v>289</v>
       </c>
@@ -11474,7 +11475,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
         <v>290</v>
       </c>
@@ -11497,7 +11498,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
         <v>291</v>
       </c>
@@ -11520,7 +11521,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
         <v>292</v>
       </c>
@@ -11543,7 +11544,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
         <v>293</v>
       </c>
@@ -11566,7 +11567,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
         <v>294</v>
       </c>
@@ -14627,21 +14628,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007BE9A2B6AD36F54F92502CC7EC1EFFAE" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6ff137012dae324b6f73df9965d0383">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="56b282a8-478b-49f4-89f9-fe807793eed0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ad9764b62364cfcb350b9d371269d492" ns3:_="">
     <xsd:import namespace="56b282a8-478b-49f4-89f9-fe807793eed0"/>
@@ -14825,24 +14811,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3126247-C5CC-4CE3-8159-2374C7D51393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19E8257A-BF83-4EBD-9264-A33A24563DB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A1F641-4554-4287-8BE5-09881D3A3834}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14858,4 +14842,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19E8257A-BF83-4EBD-9264-A33A24563DB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3126247-C5CC-4CE3-8159-2374C7D51393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>